--- a/data/raw/numbeo_stats.xlsx
+++ b/data/raw/numbeo_stats.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliskasimova/Desktop/data_analytics_course_2024/project_folder/labs/Week3/day-1/W3GroupLab/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51F5E22-4111-6D4E-8CA2-684E7052C643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984281A8-BD09-A744-AA6D-9C8473AA0962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cities" sheetId="1" r:id="rId1"/>
     <sheet name="Countries" sheetId="2" r:id="rId2"/>
+    <sheet name="Everything together" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="235">
   <si>
     <t>City</t>
   </si>
@@ -565,12 +566,174 @@
   <si>
     <t>1531.53</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>894.00</t>
+  </si>
+  <si>
+    <t>868.30</t>
+  </si>
+  <si>
+    <t>2039.40</t>
+  </si>
+  <si>
+    <t>1715.00</t>
+  </si>
+  <si>
+    <t>3013.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>Buy apartment (per m2 in city center)</t>
+  </si>
+  <si>
+    <t>4422.10</t>
+  </si>
+  <si>
+    <t>6193.00</t>
+  </si>
+  <si>
+    <t>12520.70</t>
+  </si>
+  <si>
+    <t>2987.30</t>
+  </si>
+  <si>
+    <t>Mortgage 1bed</t>
+  </si>
+  <si>
+    <t>940.91</t>
+  </si>
+  <si>
+    <t>958.12</t>
+  </si>
+  <si>
+    <t>1054.79</t>
+  </si>
+  <si>
+    <t>1321.22</t>
+  </si>
+  <si>
+    <t>1137.77</t>
+  </si>
+  <si>
+    <t>1295.57</t>
+  </si>
+  <si>
+    <t>1522.45</t>
+  </si>
+  <si>
+    <t>1472.30</t>
+  </si>
+  <si>
+    <t>1689.52</t>
+  </si>
+  <si>
+    <t>2071.55</t>
+  </si>
+  <si>
+    <t>2003.01</t>
+  </si>
+  <si>
+    <t>1937.36</t>
+  </si>
+  <si>
+    <t>1918.05</t>
+  </si>
+  <si>
+    <t>2032.62</t>
+  </si>
+  <si>
+    <t>2086.78</t>
+  </si>
+  <si>
+    <t>2076.73</t>
+  </si>
+  <si>
+    <t>1974.07</t>
+  </si>
+  <si>
+    <t>2055.01</t>
+  </si>
+  <si>
+    <t>Mortgage 3bed</t>
+  </si>
+  <si>
+    <t>1646.59</t>
+  </si>
+  <si>
+    <t>1676.71</t>
+  </si>
+  <si>
+    <t>1845.88</t>
+  </si>
+  <si>
+    <t>2312.14</t>
+  </si>
+  <si>
+    <t>1991.10</t>
+  </si>
+  <si>
+    <t>2267.25</t>
+  </si>
+  <si>
+    <t>2838.46</t>
+  </si>
+  <si>
+    <t>2744.97</t>
+  </si>
+  <si>
+    <t>3149.95</t>
+  </si>
+  <si>
+    <t>3862.22</t>
+  </si>
+  <si>
+    <t>3734.43</t>
+  </si>
+  <si>
+    <t>3612.03</t>
+  </si>
+  <si>
+    <t>3836.09</t>
+  </si>
+  <si>
+    <t>4065.25</t>
+  </si>
+  <si>
+    <t>4173.57</t>
+  </si>
+  <si>
+    <t>4153.45</t>
+  </si>
+  <si>
+    <t>3948.15</t>
+  </si>
+  <si>
+    <t>4110.01</t>
+  </si>
+  <si>
+    <t>1271.60</t>
+  </si>
+  <si>
+    <t>1305.60</t>
+  </si>
+  <si>
+    <t>1684.80</t>
+  </si>
+  <si>
+    <t>1415.23</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -581,18 +744,34 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -639,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -668,6 +847,8 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -29866,9 +30047,9 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -59119,4 +59300,660 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D9BC4D-EF60-294E-A772-67F780ED6635}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2022</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>